--- a/medicine/Psychotrope/Moulin_à_huile_de_Wittenberge/Moulin_à_huile_de_Wittenberge.xlsx
+++ b/medicine/Psychotrope/Moulin_à_huile_de_Wittenberge/Moulin_à_huile_de_Wittenberge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_huile_de_Wittenberge</t>
+          <t>Moulin_à_huile_de_Wittenberge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ancien moulin à huile de Wittenberge est un monument situé dans la ville de Wittenberge sur l'Elbe. Le complexe de bâtiments composé d'un bâtiment administratif, du moulin, d'ateliers et de stockage est construit au milieu du XIXe siècle pour la production d'huile. La production cesse à la suite de la réunification allemande en 1991. Ensuite, une entreprise reprend les bâtiments et y installe l'hôtel Zur Alten Ölmühle. Un restaurant et une brasserie sont liés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_huile_de_Wittenberge</t>
+          <t>Moulin_à_huile_de_Wittenberge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marchand Salomon Herz de Berlin acquiert une propriété à Wittenberge sur les rives de l'Elbe en 1823. Il fait ensuite construire un moulin à huile, qui va devenir la base de sa société de négoce d'huile, fondée en même temps. Les ouvriers de l'usine, qui peuvent également être recrutés dans la région, produisent de l'huile à partir de la betterave, du lin et du colza voisins. Elle sert principalement de lubrifiant pour le nombre croissant de véhicules et de machines d'usine, pour l'éclairage des ménages et des ateliers et, dans une moindre mesure, pour les repas. Les roues du moulin sont initialement entraînées par des chevaux de trait, mais en construisant un canal, appelé plus tard Herzscher Kanal, l'énergie hydraulique peut être utilisée. Trois roues hydrauliques sont en service à partir de 1839.
 Les matières premières et l'huile sont principalement transportés par la voie navigable de l'Elbe. De plus, Herz fait campagne avec succès pour l'expansion des liaisons ferroviaires entre Hambourg, Magdebourg et Wittenberge. Herz développe rapidement l'activité florissante de sa société de négoce de pétrole en Roumanie, en Russie et en Inde.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moulin_%C3%A0_huile_de_Wittenberge</t>
+          <t>Moulin_à_huile_de_Wittenberge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bâtiments sont une architecture industrielle typique faite de briques non enduites, de quatre à cinq étages. Comme simple décoration de bâtiment, l'architecte utilise différentes tailles et largeurs d'arches rondes comme fenêtres ou portes ainsi qu'une bande transversale en briques vernissées vertes pour la maison de Salomon Herz, qui est aussi utilisée sur les fenêtres et les portes. Les coins des bâtiments allongés sont soulignés au moyen de tours ou de composants saillants. La plus haute des tours d'angle restantes est transformée en tour de plongée dans les années 2010, la seule du genre dans le nord de l'Allemagne.
 La tour de quatre étages dominant la rive est la tour d'aspiration de l'huile utilisé pour le chargement ou le déchargement des navires. Elle est rénovée au XXIe siècle et agrandie en un café et un bar de plage. Elle a un plan d'étage rectangulaire mesurant 15 × 19 mètres et montre les façades en briques typiques. Les planchers sont de différentes hauteurs et ont tous des fenêtres de forme différente et encastrées de manière irrégulière dans la façade. Les surfaces des murs intérieurs sont conservées dans leur aspect d'origine lors de la rénovation.
